--- a/data/trans_dic/P48_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>43,89%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,22; 47,87</t>
+          <t>39,32; 56,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,95; 46,66</t>
+          <t>32,36; 53,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 47,92</t>
+          <t>35,94; 54,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,86; 46,94</t>
+          <t>33,89; 53,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,33; 50,78</t>
+          <t>29,58; 54,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,5; 48,13</t>
+          <t>38,93; 52,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,87; 42,98</t>
+          <t>35,2; 50,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,49; 42,08</t>
+          <t>33,44; 47,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,8; 48,21</t>
+          <t>32,51; 46,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,77; 45,29</t>
+          <t>36,6; 51,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,15; 43,84</t>
+          <t>41,34; 52,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,59; 42,27</t>
+          <t>37,48; 49,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36,9; 48,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35,55; 47,28</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>35,88; 50,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>32,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,62; 40,35</t>
+          <t>27,42; 44,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 35,69</t>
+          <t>25,29; 44,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 38,83</t>
+          <t>28,52; 46,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 37,07</t>
+          <t>26,72; 44,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,36; 36,71</t>
+          <t>27,14; 43,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 33,46</t>
+          <t>27,79; 42,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 33,45</t>
+          <t>22,12; 37,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 30,51</t>
+          <t>21,28; 35,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 36,92</t>
+          <t>20,32; 33,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 32,56</t>
+          <t>21,85; 38,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,17; 34,02</t>
+          <t>29,46; 40,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 31,83</t>
+          <t>26,45; 39,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 38,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 36,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 38,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>18,76%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,27%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,69%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,97%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>21,85%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,17%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,25%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 35,4</t>
+          <t>5,96; 40,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 33,84</t>
+          <t>4,25; 39,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 26,48</t>
+          <t>0,0; 28,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 24,38</t>
+          <t>0,0; 25,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 33,69</t>
+          <t>2,9; 30,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,72; 34,45</t>
+          <t>10,71; 39,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 27,6</t>
+          <t>7,73; 40,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 29,68</t>
+          <t>7,69; 33,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 30,4</t>
+          <t>9,56; 37,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 29,84</t>
+          <t>12,27; 41,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,83</t>
+          <t>10,82; 31,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 22,88</t>
+          <t>9,01; 32,78</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 24,22</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 25,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 30,82</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,91</t>
+          <t>33,54; 45,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,94</t>
+          <t>30,66; 44,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 38,38</t>
+          <t>31,94; 44,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 36,91</t>
+          <t>29,51; 42,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,56; 41,12</t>
+          <t>30,32; 43,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,04; 37,79</t>
+          <t>34,97; 43,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 35,2</t>
+          <t>30,41; 40,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 34,1</t>
+          <t>28,66; 37,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,78; 39,62</t>
+          <t>27,62; 36,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 35,69</t>
+          <t>31,27; 41,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,8; 35,73</t>
+          <t>35,63; 43,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 34,01</t>
+          <t>32,22; 40,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 39,28</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 37,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>170068</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>157931</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>161310</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>221017</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>196849</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>180375</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>169683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>161330</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>242592</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>366917</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>338306</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>330993</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>321105</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>463609</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>140565; 202861</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>113404; 187090</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>125775; 191918</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121503; 192128</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>148653; 274176</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>166704; 225400</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>149872; 213343</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>140826; 197977</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>132466; 189243</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>202683; 286665</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>324821; 412719</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>290961; 384497</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>284496; 374021</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>272318; 362165</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>379008; 529518</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>110116</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101682</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>116622</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111397</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>138182</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>119266</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>92336</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84507</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>123216</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>229381</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>205327</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>208958</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>195905</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>261398</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>83547; 135851</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>73937; 129059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>88764; 146274</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84466; 139953</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>108155; 175256</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>95321; 146198</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76552; 131368</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>70290; 115600</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66370; 108968</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89797; 157393</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>190814; 263041</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>168842; 250205</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>170853; 246907</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>159566; 234344</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>213205; 309494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15369</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17843</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6106</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6079</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14013</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18556</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17731</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13667</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16369</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>27541</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33925</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35574</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19774</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22447</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>41554</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5059; 34688</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3952; 36852</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22935</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22217</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3267; 34713</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8846; 32834</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6635; 34546</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6030; 26614</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7630; 30168</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13329; 44685</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18111; 53254</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16103; 58568</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9043; 38284</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10520; 42570</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21492; 68261</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>295552</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>277456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>284038</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>277251</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>373212</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>334671</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>301751</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>275686</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>262206</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>393349</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>630223</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>579207</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>559724</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>539457</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>766561</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>250518; 341753</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>225567; 325377</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>236576; 332844</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>224333; 321241</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>307368; 441594</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>298646; 375657</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>260808; 350260</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>237835; 314430</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>224851; 298713</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>335611; 448952</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>570469; 690123</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>513380; 648651</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>499793; 616936</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>476375; 593035</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>676994; 852273</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
